--- a/BOM/BOM.xlsx
+++ b/BOM/BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12203308\Documents\GitHub\Soldering_station_2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12203308\Documents\GitHub\Soldering_station_2023\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{041338A8-588A-41CF-B615-8FABD2E88B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3450E25D-F7B7-452A-B38B-2D3BD73EF7F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{B58B2E48-1E34-4D42-99CC-8624F77FC9E2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B58B2E48-1E34-4D42-99CC-8624F77FC9E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="66">
   <si>
     <t>x3</t>
   </si>
@@ -193,9 +193,6 @@
     <t>M3 nuts</t>
   </si>
   <si>
-    <t>M3 bolts</t>
-  </si>
-  <si>
     <t>Hubo</t>
   </si>
   <si>
@@ -215,6 +212,31 @@
   </si>
   <si>
     <t>Gotron/Mouser</t>
+  </si>
+  <si>
+    <t>Alluminium plate</t>
+  </si>
+  <si>
+    <t>M3x6 bolts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transformer,  60 VA, 2x115 V, 2x12 V, 
+MCTA060/12 </t>
+  </si>
+  <si>
+    <t>4-pin wire connector - Female</t>
+  </si>
+  <si>
+    <t>Gotron</t>
+  </si>
+  <si>
+    <t>4-pin straight header - Male, 2,54mm</t>
+  </si>
+  <si>
+    <t>2.54mm 0.1" Pitch 5-pin Jumper Cable - 20cm long</t>
+  </si>
+  <si>
+    <t>Adafruit</t>
   </si>
 </sst>
 </file>
@@ -269,13 +291,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -341,8 +362,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{4A9B52FE-E9A8-4374-A5AB-E53472D2FF86}" name="Tabel5" displayName="Tabel5" ref="A31:B46" totalsRowShown="0">
-  <autoFilter ref="A31:B46" xr:uid="{4A9B52FE-E9A8-4374-A5AB-E53472D2FF86}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{4A9B52FE-E9A8-4374-A5AB-E53472D2FF86}" name="Tabel5" displayName="Tabel5" ref="A31:B51" totalsRowShown="0">
+  <autoFilter ref="A31:B51" xr:uid="{4A9B52FE-E9A8-4374-A5AB-E53472D2FF86}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{C0086D0D-353F-411C-A69E-1ED7F93FE319}" name="Diverse"/>
     <tableColumn id="2" xr3:uid="{A714AF19-38E1-4B65-9B76-38283987E7FE}" name=" "/>
@@ -648,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B91787DF-E5D1-43B8-8964-495F5AD54446}">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -813,7 +834,7 @@
       <c r="B15" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -824,7 +845,7 @@
       <c r="B16" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" t="s">
         <v>15</v>
       </c>
     </row>
@@ -835,7 +856,7 @@
       <c r="B17" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" t="s">
         <v>15</v>
       </c>
     </row>
@@ -846,7 +867,7 @@
       <c r="B18" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" t="s">
         <v>15</v>
       </c>
     </row>
@@ -857,16 +878,15 @@
       <c r="B19" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="3"/>
     </row>
     <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" t="s">
         <v>15</v>
       </c>
     </row>
@@ -877,18 +897,18 @@
       <c r="B21" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" t="s">
         <v>15</v>
       </c>
     </row>
@@ -899,7 +919,7 @@
       <c r="B23" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" t="s">
         <v>15</v>
       </c>
     </row>
@@ -910,7 +930,7 @@
       <c r="B24" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" t="s">
         <v>15</v>
       </c>
     </row>
@@ -921,7 +941,7 @@
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" t="s">
         <v>15</v>
       </c>
     </row>
@@ -932,7 +952,7 @@
       <c r="B26" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" t="s">
         <v>15</v>
       </c>
     </row>
@@ -943,7 +963,7 @@
       <c r="B27" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" t="s">
         <v>15</v>
       </c>
     </row>
@@ -954,7 +974,7 @@
       <c r="B28" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" t="s">
         <v>15</v>
       </c>
     </row>
@@ -965,7 +985,7 @@
       <c r="B29" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" t="s">
         <v>15</v>
       </c>
     </row>
@@ -973,7 +993,7 @@
       <c r="A30" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" t="s">
         <v>28</v>
       </c>
     </row>
@@ -984,7 +1004,6 @@
       <c r="B31" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="3"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -993,7 +1012,7 @@
       <c r="B32" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1004,7 +1023,7 @@
       <c r="B33" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1015,7 +1034,7 @@
       <c r="B34" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1026,7 +1045,7 @@
       <c r="B35" t="s">
         <v>0</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1037,7 +1056,7 @@
       <c r="B36" t="s">
         <v>0</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1048,7 +1067,7 @@
       <c r="B37" t="s">
         <v>0</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1059,7 +1078,7 @@
       <c r="B38" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1070,7 +1089,7 @@
       <c r="B39" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1081,16 +1100,19 @@
       <c r="B40" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B41" t="s">
         <v>2</v>
+      </c>
+      <c r="C41" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1100,49 +1122,104 @@
       <c r="B42" t="s">
         <v>2</v>
       </c>
+      <c r="C42" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B43" t="s">
         <v>6</v>
       </c>
       <c r="C43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B44" t="s">
         <v>6</v>
       </c>
       <c r="C44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B45" t="s">
         <v>6</v>
       </c>
       <c r="C45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>56</v>
+      </c>
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" t="s">
         <v>57</v>
       </c>
-      <c r="B46" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" t="s">
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>58</v>
+      </c>
+      <c r="B47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>63</v>
+      </c>
+      <c r="B50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>64</v>
+      </c>
+      <c r="B51" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/BOM/BOM.xlsx
+++ b/BOM/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12203308\Documents\GitHub\Soldering_station_2023\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3450E25D-F7B7-452A-B38B-2D3BD73EF7F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7C1C4A-399F-4BAB-B55E-805510402AE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B58B2E48-1E34-4D42-99CC-8624F77FC9E2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="69">
   <si>
     <t>x3</t>
   </si>
@@ -237,6 +237,15 @@
   </si>
   <si>
     <t>Adafruit</t>
+  </si>
+  <si>
+    <t>IEC filtered connector Male Schurter, 6A, 250 VAC, Panel mounting, 2 poles</t>
+  </si>
+  <si>
+    <t>Profile VTLB-wire 3G 0,75mm², white, 2 meter</t>
+  </si>
+  <si>
+    <t>Encoder knob</t>
   </si>
 </sst>
 </file>
@@ -362,8 +371,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{4A9B52FE-E9A8-4374-A5AB-E53472D2FF86}" name="Tabel5" displayName="Tabel5" ref="A31:B51" totalsRowShown="0">
-  <autoFilter ref="A31:B51" xr:uid="{4A9B52FE-E9A8-4374-A5AB-E53472D2FF86}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{4A9B52FE-E9A8-4374-A5AB-E53472D2FF86}" name="Tabel5" displayName="Tabel5" ref="A31:B54" totalsRowShown="0">
+  <autoFilter ref="A31:B54" xr:uid="{4A9B52FE-E9A8-4374-A5AB-E53472D2FF86}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{C0086D0D-353F-411C-A69E-1ED7F93FE319}" name="Diverse"/>
     <tableColumn id="2" xr3:uid="{A714AF19-38E1-4B65-9B76-38283987E7FE}" name=" "/>
@@ -669,15 +678,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B91787DF-E5D1-43B8-8964-495F5AD54446}">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="68.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1220,6 +1229,36 @@
       </c>
       <c r="C51" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>66</v>
+      </c>
+      <c r="B52" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>67</v>
+      </c>
+      <c r="B53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>68</v>
+      </c>
+      <c r="B54" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/BOM/BOM.xlsx
+++ b/BOM/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12203308\Documents\GitHub\Soldering_station_2023\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7C1C4A-399F-4BAB-B55E-805510402AE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797F25CE-3716-4CAA-A33C-B647D42F907D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B58B2E48-1E34-4D42-99CC-8624F77FC9E2}"/>
   </bookViews>
@@ -681,7 +681,7 @@
   <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
